--- a/Data_preparation/datasets/final_data/Knightscope_Inc.xlsx
+++ b/Data_preparation/datasets/final_data/Knightscope_Inc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,60 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>UBI FP</t>
-  </si>
-  <si>
-    <t>6701 JP</t>
-  </si>
-  <si>
-    <t>5803 JP</t>
-  </si>
-  <si>
-    <t>IFX GR</t>
-  </si>
-  <si>
-    <t>2337 TT</t>
-  </si>
-  <si>
-    <t>3665 TT</t>
-  </si>
-  <si>
-    <t>005930 KS</t>
-  </si>
-  <si>
-    <t>3661 TT</t>
-  </si>
-  <si>
-    <t>2344 TT</t>
-  </si>
-  <si>
-    <t>AMP IM</t>
-  </si>
-  <si>
-    <t>EXPN LN</t>
-  </si>
-  <si>
-    <t>WKL NA</t>
-  </si>
-  <si>
-    <t>6954 JP</t>
-  </si>
-  <si>
-    <t>ENR GR</t>
-  </si>
-  <si>
-    <t>3443 TT</t>
-  </si>
-  <si>
-    <t>6526 JP</t>
-  </si>
-  <si>
-    <t>CCC LN</t>
-  </si>
-  <si>
-    <t>6588 JP</t>
   </si>
 </sst>
 </file>
@@ -706,22 +652,22 @@
         <v>42369</v>
       </c>
       <c r="D2">
-        <v>27.125</v>
+        <v>722</v>
       </c>
       <c r="E2">
-        <v>25.34499931335449</v>
+        <v>1070</v>
       </c>
       <c r="F2">
-        <v>27.125</v>
+        <v>1375</v>
       </c>
       <c r="G2">
-        <v>22.22999954223633</v>
+        <v>295.5</v>
       </c>
       <c r="H2">
-        <v>134598631</v>
+        <v>9846715</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K2">
         <v>-5284437</v>
@@ -750,22 +696,22 @@
         <v>42735</v>
       </c>
       <c r="D3">
-        <v>534.967198865167</v>
+        <v>722</v>
       </c>
       <c r="E3">
-        <v>450.4078674316406</v>
+        <v>1070</v>
       </c>
       <c r="F3">
-        <v>571.2069123366783</v>
+        <v>1375</v>
       </c>
       <c r="G3">
-        <v>445.230765507139</v>
+        <v>295.5</v>
       </c>
       <c r="H3">
-        <v>1333460157</v>
+        <v>9846715</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K3">
         <v>-1750673</v>
@@ -794,22 +740,22 @@
         <v>42916</v>
       </c>
       <c r="D4">
-        <v>804.4902529480636</v>
+        <v>722</v>
       </c>
       <c r="E4">
-        <v>793.3997192382812</v>
+        <v>1070</v>
       </c>
       <c r="F4">
-        <v>875.2990450951361</v>
+        <v>1375</v>
       </c>
       <c r="G4">
-        <v>749.0375843991515</v>
+        <v>295.5</v>
       </c>
       <c r="H4">
-        <v>275900103</v>
+        <v>9846715</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K4">
         <v>-1741641</v>
@@ -838,22 +784,22 @@
         <v>43100</v>
       </c>
       <c r="D5">
-        <v>21.06097328157131</v>
+        <v>722</v>
       </c>
       <c r="E5">
-        <v>21.5913028717041</v>
+        <v>1070</v>
       </c>
       <c r="F5">
-        <v>23.51893322585045</v>
+        <v>1375</v>
       </c>
       <c r="G5">
-        <v>20.76122322733137</v>
+        <v>295.5</v>
       </c>
       <c r="H5">
-        <v>1299391231</v>
+        <v>9846715</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K5">
         <v>-10764121</v>
@@ -888,22 +834,22 @@
         <v>43281</v>
       </c>
       <c r="D6">
-        <v>32.36709687656226</v>
+        <v>722</v>
       </c>
       <c r="E6">
-        <v>31.62302398681641</v>
+        <v>1070</v>
       </c>
       <c r="F6">
-        <v>33.33438902755955</v>
+        <v>1375</v>
       </c>
       <c r="G6">
-        <v>30.02327147189045</v>
+        <v>295.5</v>
       </c>
       <c r="H6">
-        <v>1853869000</v>
+        <v>9846715</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K6">
         <v>-6518544</v>
@@ -938,22 +884,22 @@
         <v>43465</v>
       </c>
       <c r="D7">
-        <v>178.7038649689565</v>
+        <v>722</v>
       </c>
       <c r="E7">
-        <v>142.8035278320312</v>
+        <v>1070</v>
       </c>
       <c r="F7">
-        <v>181.4961066283612</v>
+        <v>1375</v>
       </c>
       <c r="G7">
-        <v>142.8035278320312</v>
+        <v>295.5</v>
       </c>
       <c r="H7">
-        <v>193969420</v>
+        <v>9846715</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K7">
         <v>-1360047</v>
@@ -982,22 +928,22 @@
         <v>43646</v>
       </c>
       <c r="D8">
-        <v>40544.09822043826</v>
+        <v>722</v>
       </c>
       <c r="E8">
-        <v>38831.5703125</v>
+        <v>1070</v>
       </c>
       <c r="F8">
-        <v>40715.35101123209</v>
+        <v>1375</v>
       </c>
       <c r="G8">
-        <v>37975.30635853087</v>
+        <v>295.5</v>
       </c>
       <c r="H8">
-        <v>5876745450</v>
+        <v>9846715</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K8">
         <v>5115231</v>
@@ -1026,22 +972,22 @@
         <v>43830</v>
       </c>
       <c r="D9">
-        <v>222.8461507933775</v>
+        <v>722</v>
       </c>
       <c r="E9">
-        <v>219.044937133789</v>
+        <v>1070</v>
       </c>
       <c r="F9">
-        <v>252.7807083626373</v>
+        <v>1375</v>
       </c>
       <c r="G9">
-        <v>203.3649307879864</v>
+        <v>295.5</v>
       </c>
       <c r="H9">
-        <v>80995217</v>
+        <v>9846715</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K9">
         <v>5764324</v>
@@ -1070,22 +1016,22 @@
         <v>44012</v>
       </c>
       <c r="D10">
-        <v>970.3393129824782</v>
+        <v>722</v>
       </c>
       <c r="E10">
-        <v>1088.628295898438</v>
+        <v>1070</v>
       </c>
       <c r="F10">
-        <v>1118.200541627427</v>
+        <v>1375</v>
       </c>
       <c r="G10">
-        <v>950.0083940437976</v>
+        <v>295.5</v>
       </c>
       <c r="H10">
-        <v>1333460157</v>
+        <v>9846715</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K10">
         <v>5559817</v>
@@ -1120,22 +1066,22 @@
         <v>44104</v>
       </c>
       <c r="D11">
-        <v>12.7733873356874</v>
+        <v>722</v>
       </c>
       <c r="E11">
-        <v>15.52035236358643</v>
+        <v>1070</v>
       </c>
       <c r="F11">
-        <v>17.30587870681586</v>
+        <v>1375</v>
       </c>
       <c r="G11">
-        <v>12.68182262753309</v>
+        <v>295.5</v>
       </c>
       <c r="H11">
-        <v>4500000193</v>
+        <v>9846715</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="P11">
         <v>720000</v>
@@ -1203,22 +1149,22 @@
         <v>44196</v>
       </c>
       <c r="D12">
-        <v>32.50755730601569</v>
+        <v>722</v>
       </c>
       <c r="E12">
-        <v>31.25653076171875</v>
+        <v>1070</v>
       </c>
       <c r="F12">
-        <v>32.99459606093095</v>
+        <v>1375</v>
       </c>
       <c r="G12">
-        <v>30.77904021483708</v>
+        <v>295.5</v>
       </c>
       <c r="H12">
-        <v>219937482</v>
+        <v>9846715</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K12">
         <v>-885000</v>
@@ -1298,22 +1244,22 @@
         <v>44286</v>
       </c>
       <c r="D13">
-        <v>2516.34996159507</v>
+        <v>722</v>
       </c>
       <c r="E13">
-        <v>2790.17041015625</v>
+        <v>1070</v>
       </c>
       <c r="F13">
-        <v>2807.159270103477</v>
+        <v>1375</v>
       </c>
       <c r="G13">
-        <v>2503.838146397838</v>
+        <v>295.5</v>
       </c>
       <c r="H13">
-        <v>913159452</v>
+        <v>9846715</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="P13">
         <v>866000</v>
@@ -1381,22 +1327,22 @@
         <v>44377</v>
       </c>
       <c r="D14">
-        <v>40.06459571156605</v>
+        <v>722</v>
       </c>
       <c r="E14">
-        <v>40.04537963867188</v>
+        <v>1070</v>
       </c>
       <c r="F14">
-        <v>40.5353766696543</v>
+        <v>1375</v>
       </c>
       <c r="G14">
-        <v>36.25990124070713</v>
+        <v>295.5</v>
       </c>
       <c r="H14">
-        <v>219937482</v>
+        <v>9846715</v>
       </c>
       <c r="I14" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K14">
         <v>-5774990</v>
@@ -1470,22 +1416,22 @@
         <v>44469</v>
       </c>
       <c r="D15">
-        <v>51.72000122070312</v>
+        <v>722</v>
       </c>
       <c r="E15">
-        <v>45.22999954223633</v>
+        <v>1070</v>
       </c>
       <c r="F15">
-        <v>53.2400016784668</v>
+        <v>1375</v>
       </c>
       <c r="G15">
-        <v>43.54000091552734</v>
+        <v>295.5</v>
       </c>
       <c r="H15">
-        <v>134598631</v>
+        <v>9846715</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K15">
         <v>-2890000</v>
@@ -1562,22 +1508,22 @@
         <v>44561</v>
       </c>
       <c r="D16">
-        <v>98.06110899770088</v>
+        <v>722</v>
       </c>
       <c r="E16">
-        <v>84.43734741210938</v>
+        <v>1070</v>
       </c>
       <c r="F16">
-        <v>98.06110899770088</v>
+        <v>1375</v>
       </c>
       <c r="G16">
-        <v>80.56356001156674</v>
+        <v>295.5</v>
       </c>
       <c r="H16">
-        <v>229140423</v>
+        <v>9846715</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K16">
         <v>-2607000</v>
@@ -1660,22 +1606,22 @@
         <v>44651</v>
       </c>
       <c r="D17">
-        <v>564.8420934999623</v>
+        <v>253.5</v>
       </c>
       <c r="E17">
-        <v>567.5840454101562</v>
+        <v>200.5</v>
       </c>
       <c r="F17">
-        <v>568.4980293802209</v>
+        <v>262</v>
       </c>
       <c r="G17">
-        <v>487.1534560444658</v>
+        <v>195.5</v>
       </c>
       <c r="H17">
-        <v>275900103</v>
+        <v>9846715</v>
       </c>
       <c r="I17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>119759951</v>
@@ -1776,22 +1722,22 @@
         <v>44742</v>
       </c>
       <c r="D18">
-        <v>990.9535599144536</v>
+        <v>151</v>
       </c>
       <c r="E18">
-        <v>932.830322265625</v>
+        <v>150</v>
       </c>
       <c r="F18">
-        <v>1065.275076908038</v>
+        <v>195</v>
       </c>
       <c r="G18">
-        <v>932.830322265625</v>
+        <v>129.5</v>
       </c>
       <c r="H18">
-        <v>1333460157</v>
+        <v>9846715</v>
       </c>
       <c r="I18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>77552838</v>
@@ -1892,22 +1838,22 @@
         <v>44834</v>
       </c>
       <c r="D19">
-        <v>3829.951036061672</v>
+        <v>122</v>
       </c>
       <c r="E19">
-        <v>3718.19677734375</v>
+        <v>168</v>
       </c>
       <c r="F19">
-        <v>4026.941593801738</v>
+        <v>172.5</v>
       </c>
       <c r="G19">
-        <v>3570.453859038701</v>
+        <v>115</v>
       </c>
       <c r="H19">
-        <v>933160187</v>
+        <v>9846715</v>
       </c>
       <c r="I19" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>63907164</v>
@@ -2008,22 +1954,22 @@
         <v>44926</v>
       </c>
       <c r="D20">
-        <v>17.67499923706055</v>
+        <v>94.5</v>
       </c>
       <c r="E20">
-        <v>19.1200008392334</v>
+        <v>79.5</v>
       </c>
       <c r="F20">
-        <v>19.76000022888184</v>
+        <v>100</v>
       </c>
       <c r="G20">
-        <v>17.08499908447266</v>
+        <v>76.75</v>
       </c>
       <c r="H20">
-        <v>795535712</v>
+        <v>9846715</v>
       </c>
       <c r="I20" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>51428457</v>
@@ -2124,22 +2070,22 @@
         <v>45016</v>
       </c>
       <c r="D21">
-        <v>4646.163088703966</v>
+        <v>45</v>
       </c>
       <c r="E21">
-        <v>4397.0390625</v>
+        <v>30.70000076293945</v>
       </c>
       <c r="F21">
-        <v>4647.12125803552</v>
+        <v>45</v>
       </c>
       <c r="G21">
-        <v>4224.568582820331</v>
+        <v>27.64999961853028</v>
       </c>
       <c r="H21">
-        <v>933160187</v>
+        <v>9846715</v>
       </c>
       <c r="I21" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>32727032</v>
@@ -2240,22 +2186,22 @@
         <v>45107</v>
       </c>
       <c r="D22">
-        <v>299.8867087280755</v>
+        <v>27.45000076293945</v>
       </c>
       <c r="E22">
-        <v>279.6763610839844</v>
+        <v>71.5</v>
       </c>
       <c r="F22">
-        <v>311.3327623979251</v>
+        <v>112</v>
       </c>
       <c r="G22">
-        <v>274.7053735580706</v>
+        <v>26.60000038146973</v>
       </c>
       <c r="H22">
-        <v>193969420</v>
+        <v>9846715</v>
       </c>
       <c r="I22" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>23315750</v>
@@ -2356,22 +2302,22 @@
         <v>45199</v>
       </c>
       <c r="D23">
-        <v>1366.269412157012</v>
+        <v>40.29999923706055</v>
       </c>
       <c r="E23">
-        <v>1400.426147460938</v>
+        <v>33.09999847412109</v>
       </c>
       <c r="F23">
-        <v>1722.475366040805</v>
+        <v>49.95000076293945</v>
       </c>
       <c r="G23">
-        <v>1356.510344927319</v>
+        <v>30.54999923706055</v>
       </c>
       <c r="H23">
-        <v>134011000</v>
+        <v>9846715</v>
       </c>
       <c r="I23" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>53336754</v>
@@ -2472,22 +2418,22 @@
         <v>45291</v>
       </c>
       <c r="D24">
-        <v>124.5980016318655</v>
+        <v>30</v>
       </c>
       <c r="E24">
-        <v>132.1493988037109</v>
+        <v>28.89999961853028</v>
       </c>
       <c r="F24">
-        <v>136.1187273141222</v>
+        <v>35.75</v>
       </c>
       <c r="G24">
-        <v>122.5649354352075</v>
+        <v>23.5</v>
       </c>
       <c r="H24">
-        <v>229140423</v>
+        <v>9846715</v>
       </c>
       <c r="I24" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>45226493</v>
@@ -2588,22 +2534,22 @@
         <v>45382</v>
       </c>
       <c r="D25">
-        <v>4156.728619089413</v>
+        <v>25.5</v>
       </c>
       <c r="E25">
-        <v>4553.76318359375</v>
+        <v>22</v>
       </c>
       <c r="F25">
-        <v>5096.40944657156</v>
+        <v>31.5</v>
       </c>
       <c r="G25">
-        <v>3750.957352676668</v>
+        <v>21</v>
       </c>
       <c r="H25">
-        <v>175134528</v>
+        <v>9846715</v>
       </c>
       <c r="I25" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>37688744</v>
@@ -2704,22 +2650,22 @@
         <v>45473</v>
       </c>
       <c r="D26">
-        <v>2890.935410112718</v>
+        <v>16.20000076293945</v>
       </c>
       <c r="E26">
-        <v>2691.009033203125</v>
+        <v>12</v>
       </c>
       <c r="F26">
-        <v>3014.889763796666</v>
+        <v>16.25</v>
       </c>
       <c r="G26">
-        <v>2519.072349060875</v>
+        <v>10.64999961853027</v>
       </c>
       <c r="H26">
-        <v>104878138</v>
+        <v>9846715</v>
       </c>
       <c r="I26" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>32837973</v>
@@ -2820,22 +2766,22 @@
         <v>45565</v>
       </c>
       <c r="D27">
-        <v>31.23959479848472</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="E27">
-        <v>28.76222801208496</v>
+        <v>18.38999938964844</v>
       </c>
       <c r="F27">
-        <v>31.50219696309808</v>
+        <v>20.45999908447266</v>
       </c>
       <c r="G27">
-        <v>28.63340577082776</v>
+        <v>5.409999847412109</v>
       </c>
       <c r="H27">
-        <v>1299391231</v>
+        <v>9846715</v>
       </c>
       <c r="I27" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>22495233</v>
@@ -2936,22 +2882,22 @@
         <v>45657</v>
       </c>
       <c r="D28">
-        <v>2476.994723535176</v>
+        <v>13.46000003814697</v>
       </c>
       <c r="E28">
-        <v>2384.00341796875</v>
+        <v>10.51000022888184</v>
       </c>
       <c r="F28">
-        <v>2758.415779854624</v>
+        <v>17.78800010681152</v>
       </c>
       <c r="G28">
-        <v>2325.761495008725</v>
+        <v>10.03999996185303</v>
       </c>
       <c r="H28">
-        <v>175134528</v>
+        <v>9846715</v>
       </c>
       <c r="I28" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>48188839</v>
@@ -3052,22 +2998,22 @@
         <v>45747</v>
       </c>
       <c r="D29">
-        <v>3590.70430246099</v>
+        <v>2.75</v>
       </c>
       <c r="E29">
-        <v>3714.694091796875</v>
+        <v>4.989999771118164</v>
       </c>
       <c r="F29">
-        <v>3714.694091796875</v>
+        <v>5.699999809265137</v>
       </c>
       <c r="G29">
-        <v>3048.748932944461</v>
+        <v>2.450000047683716</v>
       </c>
       <c r="H29">
-        <v>913159452</v>
+        <v>9846715</v>
       </c>
       <c r="I29" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>19461454</v>
@@ -3168,22 +3114,22 @@
         <v>45838</v>
       </c>
       <c r="D30">
-        <v>2937</v>
+        <v>4.860000133514404</v>
       </c>
       <c r="E30">
-        <v>3025</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="F30">
-        <v>3125</v>
+        <v>10.14000034332275</v>
       </c>
       <c r="G30">
-        <v>2890</v>
+        <v>4.735000133514404</v>
       </c>
       <c r="H30">
-        <v>52985470</v>
+        <v>9846715</v>
       </c>
       <c r="I30" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>34092052</v>
